--- a/data/DOM-indices_processing/PARAFAC/Results_raw.xlsx
+++ b/data/DOM-indices_processing/PARAFAC/Results_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://trentu-my.sharepoint.com/personal/sandraklemet_trentu_ca/Documents/Documents/Etudes/Trent/Xenopoulos lab/Projects/11-DOC-ELA_animal-excretion/data/DOM-indices_processing/PARAFAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_A8C902C99ADF99B137553021C155FE035930B61D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E2CA876-5126-48C9-8955-CA0CEFEBC2E7}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_A8C902C99ADF99B137553021C155FE035930B61D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343E7E20-07A1-476B-ACD0-5B4AF8B76D4E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2614,6 +2610,29 @@
       </c>
       <c r="G98">
         <v>0.14365261711755314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>0.49755234777302848</v>
+      </c>
+      <c r="B99">
+        <v>0.73122499976708988</v>
+      </c>
+      <c r="C99">
+        <v>0.43763335259661901</v>
+      </c>
+      <c r="D99">
+        <v>0.10791857827164017</v>
+      </c>
+      <c r="E99">
+        <v>0.1444948942843563</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.27149173755646527</v>
       </c>
     </row>
   </sheetData>
